--- a/biology/Botanique/Litsea_grandis/Litsea_grandis.xlsx
+++ b/biology/Botanique/Litsea_grandis/Litsea_grandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Litsea grandis une espèce d'arbre de la famille des Lauraceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Litsea paludosa Kosterm.,
 Litsea rufofusca Kosterm.,
-Tetranthera grandis Wall. ex Nees[1]</t>
+Tetranthera grandis Wall. ex Nees</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arbre atteignant 30 m
 Feuilles persistantes, simples, alternes.
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Forêts mixtes à Diptérocarps, à flancs de collines, jusqu'à 800 m d'altitude de toute l'Asie du Sud-Est depuis la Birmanie, jusqu'en Chine, Philippines, Indonésie, Nouvelle-Guinée.</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En planches, mais le bois a une odeur désagréable.
 </t>
